--- a/docs/Status Reports/Senior Design Timecards.xlsx
+++ b/docs/Status Reports/Senior Design Timecards.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\MailBird\docs\Status Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\Documents\GitHub\MailBird\docs\Status Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Report - Individual" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>Week</t>
   </si>
@@ -1078,9 +1078,9 @@
         <f t="shared" ref="B9:I9" si="5">IF(B21&lt;&gt;0,B21,"--")</f>
         <v>--</v>
       </c>
-      <c r="C9" s="19" t="str">
+      <c r="C9" s="19">
         <f t="shared" si="5"/>
-        <v>--</v>
+        <v>3</v>
       </c>
       <c r="D9" s="19">
         <f t="shared" si="5"/>
@@ -1108,15 +1108,15 @@
       </c>
       <c r="J9" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C13" s="17">
         <f t="shared" ref="C13:L13" si="8">SUM(C7:C11)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="8"/>
@@ -1269,15 +1269,15 @@
       </c>
       <c r="J13" s="17">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K13" s="17">
         <f t="shared" si="8"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L13" s="17">
         <f t="shared" si="8"/>
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="21">
         <v>1</v>
@@ -1425,7 +1425,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21">
         <f>SUMIF(Rick[Week],"&lt;7",Rick[Hours])</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L21" s="21">
         <f>SUMIF(Rick[Week],"&gt;6",Rick[Hours])</f>
@@ -1651,11 +1651,11 @@
       </c>
       <c r="G8" s="2">
         <f>IF('Report - Individual'!$B$2=1,SUM('Semester Plan'!J6:N6),SUM('Semester Plan'!P6:T6))</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2">
         <f>SUM('Semester Plan'!J6:N6)+SUM('Semester Plan'!P6:T6)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1863,11 +1863,11 @@
       </c>
       <c r="G17" s="4">
         <f>SUM(G7:G14)</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H17" s="4">
         <f>SUM(H7:H14)</f>
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +1996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2080,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,7 +2163,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="25">
+        <v>41673</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2547,7 +2558,7 @@
       </c>
       <c r="F6">
         <f>SUMIFS(Rick[Hours],Rick[Week],'Report - Individual'!$B$1,Rick[Task],'Semester Plan'!$B6)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <f>SUMIFS(Ben[Hours],Ben[Week],'Report - Individual'!$B$1,Ben[Task],'Semester Plan'!$B6)</f>
@@ -2567,7 +2578,7 @@
       </c>
       <c r="L6">
         <f>SUMIFS(Rick[Hours],Rick[Week],"&lt;7",Rick[Task],'Semester Plan'!$B6)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M6">
         <f>SUMIFS(Ben[Hours],Ben[Week],"&lt;7",Ben[Task],'Semester Plan'!$B6)</f>
